--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú ðñïñôáàåí ðôóû òëâïèû\nìåòîúå äåáñé îàšéíé ïòóñúíé ëïãóÿíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is a pretty nice shop…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это довольно уютное место...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï äïâïìûîï ôýóîïå íåòóï...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0707.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a bit different from being\neco-friendly, isn\'t it?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0714.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это не совсем про экологию,\nверно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îå òïâòåí ðñï üëïìïãéý,\nâåñîï?</t>
   </si>
 </sst>
 </file>
@@ -76,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +135,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -127,6 +176,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,20 +504,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>376</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8">
+        <v>357</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>357</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>338</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï îå òïâòåí ðñï üëïìïãéý,\nâåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re considering going after\na high-ranking outlaw. We just may go for it.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1111.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It would be a tough fight. But\nthere\'s only one enemy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With all three of us in on it,\nwe can take one outlaw!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы собираемся на охоту за\nвысокоранговым негодяем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это будет нелегкий бой. Но\nвраг только один.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы все трое сразимся с\nним, мы сможем справиться с одним\nнегодяем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òïáéñàåíòÿ îà ïöïóô èà\nâúòïëïñàîãïâúí îåãïäÿåí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï áôäåó îåìåãëéê áïê. Îï\nâñàã óïìûëï ïäéî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú âòå óñïå òñàèéíòÿ ò\nîéí, íú òíïçåí òðñàâéóûòÿ ò ïäîéí\nîåãïäÿåí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1116.ssb</t>
   </si>
 </sst>
 </file>
@@ -103,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -157,11 +190,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -188,6 +230,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -470,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +619,55 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>313</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>316</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10">
+        <v>319</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -106,6 +106,42 @@
   </si>
   <si>
     <t>SCRIPT/G01P03A/um1116.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1314.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stealing Time Gears... That\'s\nabout as wrong as you can get.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Красть Шестерни Времени...\nЭто настолько неправильно, насколько\nможно себе представить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëñàòóû Šåòóåñîé Âñåíåîé...\nÜóï îàòóïìûëï îåðñàâéìûîï, îàòëïìûëï\níïçîï òåáå ðñåäòóàâéóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:N]Grovyle[CR] needs to be\ncaught...and fast!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t sleep at night from all\nthe worrying this is causing!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1605.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Гровайла[CR] нужно поймать...\nИ как можно скорее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я по ночам не могу спать из-за\nбеспокойства! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ãñïâàêìà[CR] îôçîï ðïêíàóû...\nÉ ëàë íïçîï òëïñåå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðï îïœàí îå íïãô òðàóû éè-èà\náåòðïëïêòóâà!</t>
   </si>
 </sst>
 </file>
@@ -518,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,6 +704,64 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4">
+        <v>294</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>272</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10">
+        <v>275</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ ðï îïœàí îå íïãô òðàóû éè-èà\náåòðïëïêòóâà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re saying our planet\'s\nparalyzed in the future?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]You\'re not kidding?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хотите сказать, что в будущем\nнаша планета парализована?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Вы не шутите?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóéóå òëàèàóû, œóï â áôäôþåí\nîàšà ðìàîåóà ðàñàìéèïâàîà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Âú îå šôóéóå?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2114.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re behind you guys![K]\nGood luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы за вами горой![K] Удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú èà âàíé ãïñïê![K] Ôäàœé!</t>
   </si>
 </sst>
 </file>
@@ -554,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,6 +798,57 @@
         <v>40</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>250</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10">
+        <v>253</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>231</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -178,6 +178,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú èà âàíé ãïñïê![K] Ôäàœé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2503.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Putting your heart into a gift of\ntreasure...[K] Sounds nice, huh?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вложить сердце и душу в\nподарок-сокровище...[K] Звучит недурно, а?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âìïçéóû òåñäøå é äôšô â\nðïäàñïë-òïëñïâéþå...[K] Èâôœéó îåäôñîï, à?</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know... Team [CS:X]Frontier[CR] is \njust awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'re carrying heavy goods and\nestablishing a base for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаешь... Команда [CS:X]Рубеж[CR]\nвеликолепна.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они таскают тяжёлые припасы и\nразбивают для всех лагеря.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåšû... Ëïíàîäà [CS:X]Ñôáåç[CR]\nâåìéëïìåðîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé óàòëàýó óÿçæìúå ðñéðàòú é\nñàèáéâàýó äìÿ âòåö ìàãåñÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder if Team [CS:X]Frontier[CR] has\nreached the top yet…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, Команда [CS:X]Рубеж[CR] уже\nдостигла вершины?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, Ëïíàîäà [CS:X]Ñôáåç[CR] ôçå\näïòóéãìà âåñšéîú?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you\'re having trouble,\ntaking a break and resting could help.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3116.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если что-то не получается,\nвозможно, стоит сделать перерыв и\nотдохнуть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé œóï-óï îå ðïìôœàåóòÿ,\nâïèíïçîï, òóïéó òäåìàóû ðåñåñúâ é\nïóäïöîôóû.</t>
   </si>
 </sst>
 </file>
@@ -590,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
@@ -847,6 +904,96 @@
       </c>
       <c r="E15" s="5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8">
+        <v>212</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4">
+        <v>196</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10">
+        <v>199</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
+        <v>183</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4">
+        <v>170</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Сэндслеш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -235,6 +235,132 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé œóï-óï îå ðïìôœàåóòÿ,\nâïèíïçîï, òóïéó òäåìàóû ðåñåñúâ é\nïóäïöîôóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taking a break is a good idea\nwhen you are having trouble...but taking too\nlong of a break can be a problem too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если что-то не получается,\nделать перерыв это хорошо... Но если\nперерыв затянется, то он станет помехой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé œóï-óï îå ðïìôœàåóòÿ,\näåìàóû ðåñåñúâ üóï öïñïšï... Îï åòìé\nðåñåñúâ èàóÿîåóòÿ, óï ïî òóàîåó ðïíåöïê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s that?[K] You had a Secret\nRank mark added to your Explorer Badge?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here, may I see it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]So this mark is it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]It\'s, uh, kind of\ninteresting…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] У вас на Значке\nИсследователя есть метка Секретного Ранга?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я могу на неё взглянуть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Это метка?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Она, эм, выглядит любопытно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Ô âàò îà Èîàœëå\nÉòòìåäïâàóåìÿ åòóû íåóëà Òåëñåóîïãï Ñàîãà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ íïãô îà îåæ âèãìÿîôóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Üóï íåóëà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ïîà, üí, âúãìÿäéó ìýáïðúóîï...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0305.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, have you heard? They say\nthere\'s a fabulous treasure at [CS:P]Midnight Forest[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s one obstacle, though.[K]\nYou can\'t get at that treasure unless you have\na [CS:I]Key[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы уже знаете? Говорят, что в\n[CS:P]Полуночном Лесу[CR] находится чудесное\nсокровище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть только одна проблема.[K] Если\nу вас нет [CS:I]Ключа[CR], вы до него не доберётесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ôçå èîàåóå? Ãïâïñÿó, œóï â\n[CS:P]Ðïìôîïœîïí Ìåòô[CR] îàöïäéóòÿ œôäåòîïå\nòïëñïâéþå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû óïìûëï ïäîà ðñïáìåíà.[K] Åòìé\nô âàò îåó [CS:I]Ëìýœà[CR], âú äï îåãï îå äïáåñæóåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]That\'s one cute baby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Милый у вас малыш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Íéìúê ô âàò íàìúš.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nope, I haven\'t seen that baby\nPokémon around either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет, я тоже не видел того\nмалыша Покемона.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó, ÿ óïçå îå âéäåì óïãï\níàìúšà Ðïëåíïîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If there\'s anything we can do to\nhelp, we would, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That little baby sure was cute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если бы мы могли хоть чем-нибудь\nвам помочь, мы бы помогли, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Этот малыш такой милый.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé áú íú íïãìé öïóû œåí-îéáôäû\nâàí ðïíïœû, íú áú ðïíïãìé, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóïó íàìúš óàëïê íéìúê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re not likely to come here\nagain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вряд ли мы когда-либо снова\nсюда придём.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Берегите себя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âñÿä ìé íú ëïãäà-ìéáï òîïâà\nòýäà ðñéäæí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåñåãéóå òåáÿ.</t>
   </si>
 </sst>
 </file>
@@ -265,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -328,11 +454,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -365,6 +500,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,6 +1137,199 @@
         <v>71</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12">
+        <v>151</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4">
+        <v>123</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4">
+        <v>126</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>129</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10">
+        <v>132</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="4">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
+        <v>104</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>82</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="10">
+        <v>44</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
